--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.83029139199087</v>
+        <v>2.191602</v>
       </c>
       <c r="H2">
-        <v>1.83029139199087</v>
+        <v>6.574806000000001</v>
       </c>
       <c r="I2">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252207</v>
       </c>
       <c r="J2">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252209</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.9716406281009</v>
+        <v>11.19524</v>
       </c>
       <c r="N2">
-        <v>10.9716406281009</v>
+        <v>33.58572</v>
       </c>
       <c r="O2">
-        <v>0.08275145398766044</v>
+        <v>0.07847249539938134</v>
       </c>
       <c r="P2">
-        <v>0.08275145398766044</v>
+        <v>0.07847249539938135</v>
       </c>
       <c r="Q2">
-        <v>20.08129939763038</v>
+        <v>24.53551037448</v>
       </c>
       <c r="R2">
-        <v>20.08129939763038</v>
+        <v>220.81959337032</v>
       </c>
       <c r="S2">
-        <v>0.005519611521107802</v>
+        <v>0.006022458752322453</v>
       </c>
       <c r="T2">
-        <v>0.005519611521107802</v>
+        <v>0.006022458752322455</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.83029139199087</v>
+        <v>2.191602</v>
       </c>
       <c r="H3">
-        <v>1.83029139199087</v>
+        <v>6.574806000000001</v>
       </c>
       <c r="I3">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252207</v>
       </c>
       <c r="J3">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252209</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.040059667095</v>
+        <v>31.07813833333333</v>
       </c>
       <c r="N3">
-        <v>31.040059667095</v>
+        <v>93.234415</v>
       </c>
       <c r="O3">
-        <v>0.2341135803096799</v>
+        <v>0.2178407133195748</v>
       </c>
       <c r="P3">
-        <v>0.2341135803096799</v>
+        <v>0.2178407133195749</v>
       </c>
       <c r="Q3">
-        <v>56.81235401556697</v>
+        <v>68.11091012761</v>
       </c>
       <c r="R3">
-        <v>56.81235401556697</v>
+        <v>612.99819114849</v>
       </c>
       <c r="S3">
-        <v>0.01561562912619995</v>
+        <v>0.01671842731477586</v>
       </c>
       <c r="T3">
-        <v>0.01561562912619995</v>
+        <v>0.01671842731477586</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.83029139199087</v>
+        <v>2.191602</v>
       </c>
       <c r="H4">
-        <v>1.83029139199087</v>
+        <v>6.574806000000001</v>
       </c>
       <c r="I4">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252207</v>
       </c>
       <c r="J4">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252209</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>82.9930218400568</v>
+        <v>91.56894199999999</v>
       </c>
       <c r="N4">
-        <v>82.9930218400568</v>
+        <v>274.706826</v>
       </c>
       <c r="O4">
-        <v>0.6259586383557221</v>
+        <v>0.6418480872068143</v>
       </c>
       <c r="P4">
-        <v>0.6259586383557221</v>
+        <v>0.6418480872068144</v>
       </c>
       <c r="Q4">
-        <v>151.9014134691662</v>
+        <v>200.682676425084</v>
       </c>
       <c r="R4">
-        <v>151.9014134691662</v>
+        <v>1806.144087825756</v>
       </c>
       <c r="S4">
-        <v>0.04175211848870231</v>
+        <v>0.04925934380940534</v>
       </c>
       <c r="T4">
-        <v>0.04175211848870231</v>
+        <v>0.04925934380940535</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.83029139199087</v>
+        <v>2.191602</v>
       </c>
       <c r="H5">
-        <v>1.83029139199087</v>
+        <v>6.574806000000001</v>
       </c>
       <c r="I5">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252207</v>
       </c>
       <c r="J5">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252209</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.58075037785802</v>
+        <v>8.822188333333335</v>
       </c>
       <c r="N5">
-        <v>7.58075037785802</v>
+        <v>26.466565</v>
       </c>
       <c r="O5">
-        <v>0.05717632734693763</v>
+        <v>0.06183870407422939</v>
       </c>
       <c r="P5">
-        <v>0.05717632734693763</v>
+        <v>0.06183870407422939</v>
       </c>
       <c r="Q5">
-        <v>13.87498216142507</v>
+        <v>19.33472559571</v>
       </c>
       <c r="R5">
-        <v>13.87498216142507</v>
+        <v>174.01253036139</v>
       </c>
       <c r="S5">
-        <v>0.003813722900939574</v>
+        <v>0.004745879976018413</v>
       </c>
       <c r="T5">
-        <v>0.003813722900939574</v>
+        <v>0.004745879976018414</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.5563085142682</v>
+        <v>16.59481266666667</v>
       </c>
       <c r="H6">
-        <v>16.5563085142682</v>
+        <v>49.78443799999999</v>
       </c>
       <c r="I6">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390648</v>
       </c>
       <c r="J6">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390647</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.9716406281009</v>
+        <v>11.19524</v>
       </c>
       <c r="N6">
-        <v>10.9716406281009</v>
+        <v>33.58572</v>
       </c>
       <c r="O6">
-        <v>0.08275145398766044</v>
+        <v>0.07847249539938134</v>
       </c>
       <c r="P6">
-        <v>0.08275145398766044</v>
+        <v>0.07847249539938135</v>
       </c>
       <c r="Q6">
-        <v>181.6498671465178</v>
+        <v>185.7829105583733</v>
       </c>
       <c r="R6">
-        <v>181.6498671465178</v>
+        <v>1672.04619502536</v>
       </c>
       <c r="S6">
-        <v>0.04992887559994917</v>
+        <v>0.04560206405520627</v>
       </c>
       <c r="T6">
-        <v>0.04992887559994917</v>
+        <v>0.04560206405520627</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.5563085142682</v>
+        <v>16.59481266666667</v>
       </c>
       <c r="H7">
-        <v>16.5563085142682</v>
+        <v>49.78443799999999</v>
       </c>
       <c r="I7">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390648</v>
       </c>
       <c r="J7">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390647</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.040059667095</v>
+        <v>31.07813833333333</v>
       </c>
       <c r="N7">
-        <v>31.040059667095</v>
+        <v>93.234415</v>
       </c>
       <c r="O7">
-        <v>0.2341135803096799</v>
+        <v>0.2178407133195748</v>
       </c>
       <c r="P7">
-        <v>0.2341135803096799</v>
+        <v>0.2178407133195749</v>
       </c>
       <c r="Q7">
-        <v>513.9088041497179</v>
+        <v>515.7358836704188</v>
       </c>
       <c r="R7">
-        <v>513.9088041497179</v>
+        <v>4641.62295303377</v>
       </c>
       <c r="S7">
-        <v>0.1412546519035634</v>
+        <v>0.1265919493457244</v>
       </c>
       <c r="T7">
-        <v>0.1412546519035634</v>
+        <v>0.1265919493457245</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.5563085142682</v>
+        <v>16.59481266666667</v>
       </c>
       <c r="H8">
-        <v>16.5563085142682</v>
+        <v>49.78443799999999</v>
       </c>
       <c r="I8">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390648</v>
       </c>
       <c r="J8">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390647</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.9930218400568</v>
+        <v>91.56894199999999</v>
       </c>
       <c r="N8">
-        <v>82.9930218400568</v>
+        <v>274.706826</v>
       </c>
       <c r="O8">
-        <v>0.6259586383557221</v>
+        <v>0.6418480872068143</v>
       </c>
       <c r="P8">
-        <v>0.6259586383557221</v>
+        <v>0.6418480872068144</v>
       </c>
       <c r="Q8">
-        <v>1374.058074115379</v>
+        <v>1519.569438574865</v>
       </c>
       <c r="R8">
-        <v>1374.058074115379</v>
+        <v>13676.12494717378</v>
       </c>
       <c r="S8">
-        <v>0.3776780887721538</v>
+        <v>0.3729918035300241</v>
       </c>
       <c r="T8">
-        <v>0.3776780887721538</v>
+        <v>0.3729918035300241</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.5563085142682</v>
+        <v>16.59481266666667</v>
       </c>
       <c r="H9">
-        <v>16.5563085142682</v>
+        <v>49.78443799999999</v>
       </c>
       <c r="I9">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390648</v>
       </c>
       <c r="J9">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390647</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.58075037785802</v>
+        <v>8.822188333333335</v>
       </c>
       <c r="N9">
-        <v>7.58075037785802</v>
+        <v>26.466565</v>
       </c>
       <c r="O9">
-        <v>0.05717632734693763</v>
+        <v>0.06183870407422939</v>
       </c>
       <c r="P9">
-        <v>0.05717632734693763</v>
+        <v>0.06183870407422939</v>
       </c>
       <c r="Q9">
-        <v>125.5092420254726</v>
+        <v>146.4025627017189</v>
       </c>
       <c r="R9">
-        <v>125.5092420254726</v>
+        <v>1317.62306431547</v>
       </c>
       <c r="S9">
-        <v>0.03449788007100044</v>
+        <v>0.03593580820810989</v>
       </c>
       <c r="T9">
-        <v>0.03449788007100044</v>
+        <v>0.03593580820810989</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.05360550115793</v>
+        <v>9.770107666666666</v>
       </c>
       <c r="H10">
-        <v>9.05360550115793</v>
+        <v>29.310323</v>
       </c>
       <c r="I10">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="J10">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.9716406281009</v>
+        <v>11.19524</v>
       </c>
       <c r="N10">
-        <v>10.9716406281009</v>
+        <v>33.58572</v>
       </c>
       <c r="O10">
-        <v>0.08275145398766044</v>
+        <v>0.07847249539938134</v>
       </c>
       <c r="P10">
-        <v>0.08275145398766044</v>
+        <v>0.07847249539938135</v>
       </c>
       <c r="Q10">
-        <v>99.33290594730217</v>
+        <v>109.3787001541733</v>
       </c>
       <c r="R10">
-        <v>99.33290594730217</v>
+        <v>984.40830138756</v>
       </c>
       <c r="S10">
-        <v>0.02730296686660348</v>
+        <v>0.02684797259185261</v>
       </c>
       <c r="T10">
-        <v>0.02730296686660348</v>
+        <v>0.02684797259185261</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.05360550115793</v>
+        <v>9.770107666666666</v>
       </c>
       <c r="H11">
-        <v>9.05360550115793</v>
+        <v>29.310323</v>
       </c>
       <c r="I11">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="J11">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.040059667095</v>
+        <v>31.07813833333333</v>
       </c>
       <c r="N11">
-        <v>31.040059667095</v>
+        <v>93.234415</v>
       </c>
       <c r="O11">
-        <v>0.2341135803096799</v>
+        <v>0.2178407133195748</v>
       </c>
       <c r="P11">
-        <v>0.2341135803096799</v>
+        <v>0.2178407133195749</v>
       </c>
       <c r="Q11">
-        <v>281.0244549582817</v>
+        <v>303.6367575962272</v>
       </c>
       <c r="R11">
-        <v>281.0244549582817</v>
+        <v>2732.730818366045</v>
       </c>
       <c r="S11">
-        <v>0.07724329927991659</v>
+        <v>0.07453033665907449</v>
       </c>
       <c r="T11">
-        <v>0.07724329927991659</v>
+        <v>0.07453033665907452</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.05360550115793</v>
+        <v>9.770107666666666</v>
       </c>
       <c r="H12">
-        <v>9.05360550115793</v>
+        <v>29.310323</v>
       </c>
       <c r="I12">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="J12">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>82.9930218400568</v>
+        <v>91.56894199999999</v>
       </c>
       <c r="N12">
-        <v>82.9930218400568</v>
+        <v>274.706826</v>
       </c>
       <c r="O12">
-        <v>0.6259586383557221</v>
+        <v>0.6418480872068143</v>
       </c>
       <c r="P12">
-        <v>0.6259586383557221</v>
+        <v>0.6418480872068144</v>
       </c>
       <c r="Q12">
-        <v>751.3860790888585</v>
+        <v>894.6384222627552</v>
       </c>
       <c r="R12">
-        <v>751.3860790888585</v>
+        <v>8051.745800364796</v>
       </c>
       <c r="S12">
-        <v>0.2065284310948661</v>
+        <v>0.2195969398673848</v>
       </c>
       <c r="T12">
-        <v>0.2065284310948661</v>
+        <v>0.2195969398673848</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.05360550115793</v>
+        <v>9.770107666666666</v>
       </c>
       <c r="H13">
-        <v>9.05360550115793</v>
+        <v>29.310323</v>
       </c>
       <c r="I13">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="J13">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.58075037785802</v>
+        <v>8.822188333333335</v>
       </c>
       <c r="N13">
-        <v>7.58075037785802</v>
+        <v>26.466565</v>
       </c>
       <c r="O13">
-        <v>0.05717632734693763</v>
+        <v>0.06183870407422939</v>
       </c>
       <c r="P13">
-        <v>0.05717632734693763</v>
+        <v>0.06183870407422939</v>
       </c>
       <c r="Q13">
-        <v>68.63312332388043</v>
+        <v>86.19372987227723</v>
       </c>
       <c r="R13">
-        <v>68.63312332388043</v>
+        <v>775.743568850495</v>
       </c>
       <c r="S13">
-        <v>0.01886472437499763</v>
+        <v>0.02115701589010108</v>
       </c>
       <c r="T13">
-        <v>0.01886472437499763</v>
+        <v>0.02115701589010108</v>
       </c>
     </row>
   </sheetData>
